--- a/matematicas_e_ingenieria/product_import_matematicas_e_ingenieria.xlsx
+++ b/matematicas_e_ingenieria/product_import_matematicas_e_ingenieria.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="197">
   <si>
     <t xml:space="preserve">Product ID</t>
   </si>
@@ -196,9 +196,6 @@
     <t xml:space="preserve">Matemáticas e Ingeniería</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-3006-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">21.2</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t xml:space="preserve">Probabilidad curso introductorio</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-3004-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">.8</t>
   </si>
   <si>
@@ -229,9 +223,6 @@
     <t xml:space="preserve">Estática Momentos de primer orden y centroides </t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-3463-7</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.7</t>
   </si>
   <si>
@@ -250,9 +241,6 @@
     <t xml:space="preserve">Elementos de Geometría Analítica Plana</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-3464-4</t>
-  </si>
-  <si>
     <t xml:space="preserve">21.5</t>
   </si>
   <si>
@@ -265,9 +253,6 @@
     <t xml:space="preserve">Apuntes de introducción a la Ingeniería Ambiental </t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-3479-8</t>
-  </si>
-  <si>
     <t xml:space="preserve">343.5</t>
   </si>
   <si>
@@ -280,18 +265,12 @@
     <t xml:space="preserve">Memorias del 2° Coloquio de Ambientes  Virtuales y Objetos de Aprendizaje Experiencias y Reflexiones </t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-5396-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Autor:MariCarmen González  Videgaray:1</t>
   </si>
   <si>
     <t xml:space="preserve">Guía de estudio de la asignatura Análisis de Decisiones</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-3003-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">21.1</t>
   </si>
   <si>
@@ -313,9 +292,6 @@
     <t xml:space="preserve">Guía para Elaborar Propuestas de Investigación</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-3382-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">13.8</t>
   </si>
   <si>
@@ -334,9 +310,6 @@
     <t xml:space="preserve">Prácticas de Laboratorio de Geología</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-3131-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">img/practicas_de_laboratorio_de_geologia.jpg</t>
   </si>
   <si>
@@ -346,9 +319,6 @@
     <t xml:space="preserve">Elementos de Álgebra</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-3383-8</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.6</t>
   </si>
   <si>
@@ -361,16 +331,10 @@
     <t xml:space="preserve">Sierra Grande, un pueblo como cualquier otro</t>
   </si>
   <si>
-    <t xml:space="preserve">978-968-36-4535-7</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://132.248.80.70/prestashop/Libreria-FES-ACATLAN/matematicas_e_ingenieria/img/sierra_grande_un_pueblo_como_cualquier_otro.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Río Mixcoac. Entre miradas de ojos verdes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">978-970-32-2991-8</t>
   </si>
   <si>
     <t xml:space="preserve">Autor::1,Primera edición :2,
@@ -383,9 +347,6 @@
     <t xml:space="preserve">Matemáticas e Ingeniería </t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-5395-9</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.8</t>
   </si>
   <si>
@@ -417,9 +378,6 @@
     <t xml:space="preserve">Lógica Matemática. El enfoque de las matemáticas aplicadas y la computación</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-5600-4</t>
-  </si>
-  <si>
     <t xml:space="preserve">27.9</t>
   </si>
   <si>
@@ -433,9 +391,6 @@
   </si>
   <si>
     <t xml:space="preserve">Métodos probabilísticos de optimización</t>
-  </si>
-  <si>
-    <t xml:space="preserve">978-607-02-5785-8</t>
   </si>
   <si>
     <t xml:space="preserve">28.5</t>
@@ -454,9 +409,6 @@
     <t xml:space="preserve">Apuntes de la materia de Teoría de Juegos</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-4383-7</t>
-  </si>
-  <si>
     <t xml:space="preserve">320.5</t>
   </si>
   <si>
@@ -470,9 +422,6 @@
     <t xml:space="preserve">Prácticas de laboratorio de Electricidad Aplicada</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-2361-7</t>
-  </si>
-  <si>
     <t xml:space="preserve">21.6</t>
   </si>
   <si>
@@ -491,9 +440,6 @@
     <t xml:space="preserve">Cálculo Diferencial e Integral III</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-5938-8</t>
-  </si>
-  <si>
     <t xml:space="preserve">21.4</t>
   </si>
   <si>
@@ -512,9 +458,6 @@
     <t xml:space="preserve">Estática. Momentos de inercia o segundos momentos</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-6516-7</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.1</t>
   </si>
   <si>
@@ -530,9 +473,6 @@
     <t xml:space="preserve">Conjuntos Nociones Fundamentales</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-5842-8</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://132.248.80.70/prestashop/Libreria-FES-ACATLAN/matematicas_e_ingenieria/img/conjuntos_nociones_fundamentales.jpg</t>
   </si>
   <si>
@@ -542,9 +482,6 @@
     <t xml:space="preserve">Ambientes virtuales y objetos de aprendizaje 4 Incorporación crítica y reflexiva</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-6879-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://132.248.80.70/prestashop/Libreria-FES-ACATLAN/matematicas_e_ingenieria/img/ambientes_virtuales_y_objetos_de_aprendizaje_4.jpg</t>
   </si>
   <si>
@@ -554,15 +491,9 @@
     <t xml:space="preserve">Alicia en el país de las estadísticas con R y Excel</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-6880-9</t>
-  </si>
-  <si>
     <t xml:space="preserve">13.6</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1.</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://132.248.80.70/prestashop/Libreria-FES-ACATLAN/matematicas_e_ingenieria/img/alicia_en_el_pais_de_las_estadisticas_con_r_y_excel.jpg</t>
   </si>
   <si>
@@ -572,9 +503,6 @@
     <t xml:space="preserve">Álgebra Nivel Secundaria Vol. I Dirigido a profesores que apoyan a estudiantes ciegos con visión baja</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-4209-0</t>
-  </si>
-  <si>
     <t xml:space="preserve">300.5</t>
   </si>
   <si>
@@ -587,9 +515,6 @@
     <t xml:space="preserve">Álgebra Nivel Secundaria Vol. I Dirigido a estudiantes con visión baja</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-4210-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">27.7</t>
   </si>
   <si>
@@ -602,9 +527,6 @@
     <t xml:space="preserve">Álgebra Nivel Secundaría Vol. I Tomo II Dirigido a estudiantes ciegos</t>
   </si>
   <si>
-    <t xml:space="preserve">978-602-2745-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">28.1</t>
   </si>
   <si>
@@ -618,9 +540,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ambientes virtuales y objetos de aprendizaje 5. Teoría y práctica 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">978-607-02-8500-4</t>
   </si>
   <si>
     <t xml:space="preserve">http://132.248.80.70/prestashop/Libreria-FES-ACATLAN/matematicas_e_ingenieria/img/ambientes_virtuales_y_objetos_de_aprendizaje_5.jpg</t>
@@ -636,9 +555,6 @@
     <t xml:space="preserve">Métodos numéricos I</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-8520-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">15.7</t>
   </si>
   <si>
@@ -655,9 +571,6 @@
     <t xml:space="preserve">Elementos de cálculo actuarial </t>
   </si>
   <si>
-    <t xml:space="preserve">970-32-2979-4</t>
-  </si>
-  <si>
     <t xml:space="preserve">968.5</t>
   </si>
   <si>
@@ -670,9 +583,6 @@
     <t xml:space="preserve">Introducción al uso de los Jacobianos</t>
   </si>
   <si>
-    <t xml:space="preserve">978-607-02-9300-9</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.2</t>
   </si>
   <si>
@@ -683,9 +593,6 @@
   </si>
   <si>
     <t xml:space="preserve">Álgebra lineal productos internos y teoremas de estructura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">978-607-02-9591-1</t>
   </si>
   <si>
     <t xml:space="preserve">1.2</t>
@@ -703,9 +610,6 @@
   </si>
   <si>
     <t xml:space="preserve">Función Gama y función Beta de Euler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">978-607-02-9299-6</t>
   </si>
   <si>
     <t xml:space="preserve">0.5</t>
@@ -721,9 +625,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -836,7 +741,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -857,11 +762,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -972,8 +881,8 @@
   </sheetPr>
   <dimension ref="A1:BD35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AQ4" activeCellId="0" sqref="AQ4:AQ6 AQ8:AQ9 AQ11:AQ12 AQ14:AQ28 AQ30:AQ34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AK1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AQ3" activeCellId="0" sqref="AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1036,7 +945,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="56" style="0" width="10.11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1115,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -1220,14 +1129,14 @@
         <v>57</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="5" t="n">
+        <v>9786070230066</v>
+      </c>
+      <c r="T2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="U2" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>1</v>
@@ -1237,13 +1146,13 @@
       </c>
       <c r="AC2" s="4"/>
       <c r="AQ2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AT2" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="35.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -1251,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>57</v>
@@ -1259,8 +1168,8 @@
       <c r="G3" s="4" t="n">
         <v>160</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>64</v>
+      <c r="Q3" s="5" t="n">
+        <v>9786070230042</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>21</v>
@@ -1269,7 +1178,7 @@
         <v>27</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W3" s="0" t="n">
         <v>352</v>
@@ -1278,13 +1187,13 @@
         <v>160</v>
       </c>
       <c r="AQ3" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT3" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -1292,36 +1201,36 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="Q4" s="2" t="s">
-        <v>69</v>
+      <c r="Q4" s="5" t="n">
+        <v>9786070234637</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U4" s="0" t="n">
         <v>17</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AC4" s="4"/>
       <c r="AQ4" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="79.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -1329,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>57</v>
@@ -1337,11 +1246,11 @@
       <c r="G5" s="4" t="n">
         <v>220</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>77</v>
+      <c r="Q5" s="5" t="n">
+        <v>9786070234644</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="U5" s="0" t="n">
         <v>28</v>
@@ -1356,13 +1265,13 @@
         <v>220</v>
       </c>
       <c r="AQ5" s="0" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="47.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -1370,36 +1279,36 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="Q6" s="2" t="s">
-        <v>81</v>
+      <c r="Q6" s="5" t="n">
+        <v>9786070234798</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="U6" s="0" t="n">
         <v>28</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC6" s="4"/>
       <c r="AQ6" s="0" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>8</v>
       </c>
@@ -1407,21 +1316,21 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="Q7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="Q7" s="5" t="n">
+        <v>9786070253966</v>
+      </c>
+      <c r="AC7" s="9"/>
       <c r="AT7" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>9</v>
       </c>
@@ -1429,40 +1338,40 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>160</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>9786070230035</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC8" s="9" t="n">
+        <v>160</v>
+      </c>
+      <c r="AQ8" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="8" t="n">
-        <v>160</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="T8" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="U8" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="V8" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="W8" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC8" s="8" t="n">
-        <v>160</v>
-      </c>
-      <c r="AQ8" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT8" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="35.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>10</v>
       </c>
@@ -1470,40 +1379,40 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="9" t="n">
         <v>180</v>
       </c>
-      <c r="Q9" s="7" t="s">
-        <v>97</v>
+      <c r="Q9" s="5" t="n">
+        <v>9786070233821</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="V9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="W9" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="W9" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC9" s="8" t="n">
+      <c r="AC9" s="9" t="n">
         <v>180</v>
       </c>
       <c r="AQ9" s="0" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>11</v>
       </c>
@@ -1511,14 +1420,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="Q10" s="7" t="s">
-        <v>104</v>
+      <c r="G10" s="9"/>
+      <c r="Q10" s="5" t="n">
+        <v>9786070231315</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>21</v>
@@ -1532,30 +1441,30 @@
       <c r="W10" s="0" t="n">
         <v>278</v>
       </c>
-      <c r="AC10" s="8"/>
+      <c r="AC10" s="9"/>
       <c r="AQ10" s="0" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="Q11" s="10" t="s">
-        <v>108</v>
+      <c r="G11" s="12"/>
+      <c r="Q11" s="5" t="n">
+        <v>9786070233838</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>21</v>
@@ -1564,65 +1473,65 @@
         <v>27</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="W11" s="0" t="n">
         <v>771</v>
       </c>
-      <c r="AC11" s="11"/>
+      <c r="AC11" s="12"/>
       <c r="AQ11" s="0" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="Q12" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="Q12" s="5" t="n">
+        <v>9789683645357</v>
+      </c>
+      <c r="AC12" s="14"/>
       <c r="AQ12" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+      <c r="AT12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="Q13" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC13" s="13"/>
-      <c r="AT13" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="14"/>
+      <c r="Q13" s="5" t="n">
+        <v>9789703229918</v>
+      </c>
+      <c r="AC13" s="14"/>
+      <c r="AT13" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="47.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>16</v>
       </c>
@@ -1630,40 +1539,40 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G14" s="4" t="n">
         <v>180</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>120</v>
+      <c r="Q14" s="5" t="n">
+        <v>9786070253959</v>
       </c>
       <c r="T14" s="0" t="n">
         <v>14</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="AC14" s="4" t="n">
         <v>180</v>
       </c>
       <c r="AQ14" s="0" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="47.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>17</v>
       </c>
@@ -1671,20 +1580,20 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="Q15" s="2" t="s">
-        <v>86</v>
+      <c r="Q15" s="5" t="n">
+        <v>9786070253966</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="V15" s="0" t="n">
         <v>1</v>
@@ -1694,13 +1603,13 @@
       </c>
       <c r="AC15" s="4"/>
       <c r="AQ15" s="0" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="AT15" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>18</v>
       </c>
@@ -1708,36 +1617,36 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="Q16" s="5" t="n">
+        <v>9786070256004</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="V16" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="Q16" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="T16" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="U16" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="V16" s="0" t="s">
-        <v>133</v>
       </c>
       <c r="W16" s="0" t="n">
         <v>424</v>
       </c>
       <c r="AC16" s="4"/>
       <c r="AQ16" s="0" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="AT16" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="35.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>19</v>
       </c>
@@ -1745,25 +1654,25 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>160</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>137</v>
+      <c r="Q17" s="5" t="n">
+        <v>9786070257858</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="W17" s="0" t="n">
         <v>331</v>
@@ -1772,13 +1681,13 @@
         <v>160</v>
       </c>
       <c r="AQ17" s="0" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="AT17" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="47.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>20</v>
       </c>
@@ -1786,40 +1695,40 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>160</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>143</v>
+      <c r="Q18" s="5" t="n">
+        <v>9786070243837</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="U18" s="0" t="n">
         <v>28</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="AC18" s="4" t="n">
         <v>160</v>
       </c>
       <c r="AQ18" s="0" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="AT18" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="47.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>21</v>
       </c>
@@ -1827,36 +1736,36 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="Q19" s="2" t="s">
-        <v>148</v>
+      <c r="Q19" s="5" t="n">
+        <v>9786070223617</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="W19" s="0" t="n">
         <v>305</v>
       </c>
       <c r="AC19" s="4"/>
       <c r="AQ19" s="0" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="AT19" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="35.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>22</v>
       </c>
@@ -1864,40 +1773,40 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>180</v>
       </c>
-      <c r="Q20" s="2" t="s">
-        <v>155</v>
+      <c r="Q20" s="5" t="n">
+        <v>9786070259388</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="AC20" s="4" t="n">
         <v>180</v>
       </c>
       <c r="AQ20" s="0" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="AT20" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="35.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>23</v>
       </c>
@@ -1905,36 +1814,36 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="Q21" s="2" t="s">
-        <v>162</v>
+      <c r="Q21" s="5" t="n">
+        <v>9786070265167</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U21" s="0" t="n">
         <v>17</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="AC21" s="4"/>
       <c r="AQ21" s="0" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="AT21" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>24</v>
       </c>
@@ -1942,16 +1851,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>160</v>
       </c>
-      <c r="Q22" s="2" t="s">
-        <v>168</v>
+      <c r="Q22" s="5" t="n">
+        <v>9786070258428</v>
       </c>
       <c r="T22" s="0" t="n">
         <v>16</v>
@@ -1960,7 +1869,7 @@
         <v>21</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W22" s="0" t="n">
         <v>146</v>
@@ -1969,13 +1878,13 @@
         <v>160</v>
       </c>
       <c r="AQ22" s="0" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="AT22" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="35.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>25</v>
       </c>
@@ -1983,36 +1892,36 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="Q23" s="2" t="s">
-        <v>172</v>
+      <c r="Q23" s="5" t="n">
+        <v>9786070268793</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="U23" s="0" t="n">
         <v>28</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="W23" s="0" t="n">
         <v>405</v>
       </c>
       <c r="AC23" s="4"/>
       <c r="AQ23" s="0" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="AT23" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>26</v>
       </c>
@@ -2020,36 +1929,36 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="Q24" s="2" t="s">
-        <v>176</v>
+      <c r="Q24" s="5" t="n">
+        <v>9786070268809</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="U24" s="0" t="s">
-        <v>178</v>
+        <v>155</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>21.1</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="W24" s="0" t="n">
         <v>221</v>
       </c>
       <c r="AC24" s="4"/>
       <c r="AQ24" s="0" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="AT24" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="47.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>27</v>
       </c>
@@ -2057,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="8" t="n">
+        <v>107</v>
+      </c>
+      <c r="G25" s="9" t="n">
         <v>260</v>
       </c>
-      <c r="Q25" s="7" t="s">
-        <v>182</v>
+      <c r="Q25" s="5" t="n">
+        <v>9786070242090</v>
       </c>
       <c r="T25" s="0" t="n">
         <v>21</v>
@@ -2075,22 +1984,22 @@
         <v>27</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC25" s="8" t="n">
+        <v>159</v>
+      </c>
+      <c r="AC25" s="9" t="n">
         <v>260</v>
       </c>
       <c r="AQ25" s="0" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="AT25" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="35.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>28</v>
       </c>
@@ -2098,40 +2007,40 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" s="8" t="n">
+        <v>107</v>
+      </c>
+      <c r="G26" s="9" t="n">
         <v>420</v>
       </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
+      <c r="Q26" s="5" t="n">
+        <v>9786070242106</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="U26" s="0" t="n">
         <v>21</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="W26" s="0" t="n">
         <v>810</v>
       </c>
-      <c r="AC26" s="8" t="n">
+      <c r="AC26" s="9" t="n">
         <v>420</v>
       </c>
       <c r="AQ26" s="0" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="AT26" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="35.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>29</v>
       </c>
@@ -2139,40 +2048,40 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="8" t="n">
+        <v>107</v>
+      </c>
+      <c r="G27" s="9" t="n">
         <v>700</v>
       </c>
-      <c r="Q27" s="7" t="s">
-        <v>192</v>
+      <c r="Q27" s="5" t="n">
+        <v>97860227455</v>
       </c>
       <c r="T27" s="0" t="n">
         <v>22</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC27" s="8" t="n">
+        <v>169</v>
+      </c>
+      <c r="AC27" s="9" t="n">
         <v>700</v>
       </c>
       <c r="AQ27" s="0" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="AT27" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="47.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>31</v>
       </c>
@@ -2180,25 +2089,25 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G28" s="4" t="n">
         <v>260</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>198</v>
+      <c r="Q28" s="5" t="n">
+        <v>9786070285004</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="U28" s="0" t="n">
         <v>28</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="W28" s="0" t="n">
         <v>395</v>
@@ -2207,13 +2116,13 @@
         <v>260</v>
       </c>
       <c r="AQ28" s="0" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="AT28" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>32</v>
       </c>
@@ -2221,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>57</v>
@@ -2229,17 +2138,17 @@
       <c r="G29" s="4" t="n">
         <v>220</v>
       </c>
-      <c r="Q29" s="2" t="s">
-        <v>131</v>
+      <c r="Q29" s="5" t="n">
+        <v>9786070256004</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="U29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="W29" s="0" t="n">
         <v>421</v>
@@ -2248,10 +2157,10 @@
         <v>220</v>
       </c>
       <c r="AT29" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>33</v>
       </c>
@@ -2259,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>57</v>
@@ -2267,17 +2176,17 @@
       <c r="G30" s="4" t="n">
         <v>180</v>
       </c>
-      <c r="Q30" s="2" t="s">
-        <v>203</v>
+      <c r="Q30" s="5" t="n">
+        <v>9786070285202</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="U30" s="0" t="n">
         <v>22</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="W30" s="0" t="n">
         <v>92</v>
@@ -2286,13 +2195,13 @@
         <v>180</v>
       </c>
       <c r="AQ30" s="0" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="AT30" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="47.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>34</v>
       </c>
@@ -2300,36 +2209,36 @@
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="Q31" s="2" t="s">
-        <v>209</v>
+      <c r="Q31" s="5" t="n">
+        <v>9703229794</v>
       </c>
       <c r="T31" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="V31" s="0" t="n">
         <v>2</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="AC31" s="4"/>
       <c r="AQ31" s="0" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="AT31" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="35.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>36</v>
       </c>
@@ -2337,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>57</v>
@@ -2345,17 +2254,17 @@
       <c r="G32" s="4" t="n">
         <v>180</v>
       </c>
-      <c r="Q32" s="2" t="s">
-        <v>214</v>
+      <c r="Q32" s="5" t="n">
+        <v>9786070293009</v>
       </c>
       <c r="T32" s="0" t="n">
         <v>21</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="V32" s="0" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="W32" s="0" t="n">
         <v>123</v>
@@ -2364,13 +2273,13 @@
         <v>180</v>
       </c>
       <c r="AQ32" s="0" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="AT32" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="47.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>37</v>
       </c>
@@ -2378,36 +2287,36 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D33" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="Q33" s="7" t="s">
-        <v>219</v>
+      <c r="G33" s="9"/>
+      <c r="Q33" s="5" t="n">
+        <v>9786070295911</v>
       </c>
       <c r="T33" s="0" t="n">
         <v>17</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V33" s="0" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="W33" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC33" s="8"/>
+        <v>190</v>
+      </c>
+      <c r="AC33" s="9"/>
       <c r="AQ33" s="0" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="AT33" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="35.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>38</v>
       </c>
@@ -2415,37 +2324,37 @@
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D34" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="8" t="n">
+      <c r="G34" s="9" t="n">
         <v>180</v>
       </c>
-      <c r="Q34" s="7" t="s">
-        <v>225</v>
+      <c r="Q34" s="5" t="n">
+        <v>9786070292996</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="V34" s="0" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="W34" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="AC34" s="8" t="n">
+      <c r="AC34" s="9" t="n">
         <v>180</v>
       </c>
       <c r="AQ34" s="0" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="AT34" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
